--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316174.846961946</v>
+        <v>1408462.206579772</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7798524.267992093</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10604035.03148276</v>
+        <v>11039457.79593271</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>330.1866284966274</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>116.9911193017153</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.87388486970745</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>94.32873841396652</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>331.5671029100705</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>281.5082707706964</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>120.0258340400111</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.37086888118499</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>149.6062985965392</v>
       </c>
       <c r="T8" t="n">
-        <v>43.195632429612</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>161.2620823710465</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>134.3208427877757</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>284.7781523974826</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.93482921065052</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971807</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.90320919298874</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>83.26083708064505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>50.52844555129975</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>128.1592673228012</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>52.23490948285998</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.81420084571339</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.7268717888059</v>
+        <v>62.17195463236438</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V31" t="n">
-        <v>157.7822070347165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.87956703897748</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.5769297729246</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3439,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>63.72703424640825</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>35.00179869008806</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>63.29609327028601</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3358770298277</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>134.3501500932817</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>168.1158122680962</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>201.3600324842868</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>241.7026018451764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2013.317548404538</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.355031464126</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.089332857375</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.089332857375</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2578.976243238712</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2578.976243238712</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2325.214457876803</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2325.214457876803</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2325.214457876803</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1951.748699615723</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.317548404538</v>
+        <v>1561.609367639912</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>302.467694800751</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>302.467694800751</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>302.467694800751</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>302.467694800751</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>302.467694800751</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>603.4305111065548</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.274936282423</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.274936282423</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D5" t="n">
-        <v>1371.274936282423</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>818.9554664465411</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.2978374347316</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>325.2978374347316</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>175.1811980223959</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347316</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347316</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.2978374347316</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="T8" t="n">
-        <v>2653.51713906912</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="U8" t="n">
-        <v>2653.51713906912</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.454251725549</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.685596455435</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.219838194355</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1206.080506218543</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782192</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782192</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1878.169188758594</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1509.206671818182</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.940973211432</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>765.1527206131875</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>354.16681582358</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>354.16681582358</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995485</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758594</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212.7293032143256</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C13" t="n">
-        <v>212.7293032143256</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7293032143256</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143256</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.6594280995014</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C16" t="n">
-        <v>294.7232451715945</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D16" t="n">
-        <v>294.7232451715945</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E16" t="n">
-        <v>294.7232451715945</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F16" t="n">
-        <v>294.7232451715945</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G16" t="n">
-        <v>127.0204085463135</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.507193008249</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1094.090022971289</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>866.1004720732712</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.3078929297411</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5494,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5531,28 +5533,28 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5625,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.7997573601911</v>
+        <v>1025.484245566078</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>856.5480626381711</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>706.4314232258354</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>558.5183296434423</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>411.6283821455319</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>243.9255455202508</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5707,16 +5709,16 @@
         <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295169</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W19" t="n">
-        <v>998.7893082582084</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X19" t="n">
-        <v>770.7997573601911</v>
+        <v>1025.484245566078</v>
       </c>
       <c r="Y19" t="n">
-        <v>770.7997573601911</v>
+        <v>1025.484245566078</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
@@ -5747,34 +5749,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5786,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5835,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710301</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5935,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.059203485665</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.374715279778</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.957545242817</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>964.9679943448</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.1754152012699</v>
+        <v>339.1038984121913</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5984,40 +5986,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>539.8079542252655</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>539.8079542252655</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D25" t="n">
-        <v>389.6913148129298</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>173.65552377547</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>173.65552377547</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1714.3402073399</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1459.655719134013</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.238549097053</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>942.2489981990353</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>721.4564190555052</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6306,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3067.385930175747</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C28" t="n">
-        <v>3067.385930175747</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.768765573601</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699244</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V28" t="n">
-        <v>3730.981410493358</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>3441.564240456397</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X28" t="n">
-        <v>3213.57468955838</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y28" t="n">
-        <v>3067.385930175747</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="29">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3698.827990809238</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>3529.891807881331</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>3379.775168468996</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>3231.862074886602</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>3084.972127388692</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>4778.05172241972</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V31" t="n">
-        <v>4618.675755717986</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W31" t="n">
-        <v>4329.258585681026</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>4101.269034783008</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>3880.476455639478</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6715,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V34" t="n">
-        <v>1667.240599230347</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W34" t="n">
-        <v>1377.823429193387</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.833878295369</v>
+        <v>3213.574689558379</v>
       </c>
       <c r="Y34" t="n">
-        <v>1149.833878295369</v>
+        <v>2992.782110414849</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6919,22 @@
         <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551606</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001571</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089243</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6941,31 +6943,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432982</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604873</v>
@@ -7011,13 +7013,13 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7126,19 +7128,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1751.093193329805</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>1523.103642431788</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7150,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>685.1208104866366</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1549.639626139991</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.18992896982</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196467</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432982</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7208,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839438</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.8228945579559</v>
+        <v>3796.153667990893</v>
       </c>
       <c r="C40" t="n">
-        <v>192.886711630049</v>
+        <v>3627.217485062986</v>
       </c>
       <c r="D40" t="n">
-        <v>192.886711630049</v>
+        <v>3477.10084565065</v>
       </c>
       <c r="E40" t="n">
-        <v>192.886711630049</v>
+        <v>3329.187752068257</v>
       </c>
       <c r="F40" t="n">
-        <v>192.886711630049</v>
+        <v>3182.297804570347</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839438</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4742.69637020751</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>4742.69637020751</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>4742.69637020751</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>4742.69637020751</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.022194636464</v>
+        <v>4488.011882001623</v>
       </c>
       <c r="W40" t="n">
-        <v>810.6050245995034</v>
+        <v>4198.594711964663</v>
       </c>
       <c r="X40" t="n">
-        <v>582.6154737014861</v>
+        <v>4198.594711964663</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.8228945579559</v>
+        <v>3977.802132821133</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.654488422265</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993392</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723278</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2393.393660462198</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.254328486386</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G42" t="n">
-        <v>936.573581468607</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064745</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080125</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986299</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836216</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.400891308157</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>1806.438374367745</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1448.172675760994</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.38442316275</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>651.3985183731427</v>
+        <v>850.2139837551612</v>
       </c>
       <c r="G44" t="n">
-        <v>236.3260682181391</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>137.5579332089251</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>451.8458144277741</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>785.6651881176223</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1236.699401366033</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1999.417367126739</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2979.169639353388</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232727</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>4195.497197679675</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.60582160917</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>2952.14006334809</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2562.000731372279</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039389999</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193483</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320152</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.476988454333</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008789</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>679.6952191369613</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C46" t="n">
-        <v>510.7590362090544</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>360.6423967967187</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>212.7293032143256</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143256</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415547</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="U46" t="n">
-        <v>1615.697475415547</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V46" t="n">
-        <v>1371.553433147692</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W46" t="n">
-        <v>1082.136263110731</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.136263110731</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y46" t="n">
-        <v>861.3436839672011</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704173</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>67.5366377670407</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>231.5010718068473</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.829611989837872</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.8971509712868</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.59472895491405</v>
       </c>
     </row>
     <row r="14">
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>84.85180572133204</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>83.98598401798279</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94.22656936302103</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>158.0525708828117</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>166.3497438692348</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>88.71226382522339</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>236.3976373598995</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.85778156328885</v>
+        <v>156.4126987197304</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24892,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V31" t="n">
-        <v>94.35543628911145</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.9524131429598</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>154.8576191056865</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.93035397995927</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>188.841550053542</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>71.93701474117989</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>152.1728482433093</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.18891679188235</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>10.43504147865161</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>788562.9353882039</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>788562.9353882039</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651048</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651048</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="G2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="I2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="J2" t="n">
         <v>476498.1442643797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.1442643799</v>
       </c>
       <c r="K2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="L2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="M2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="N2" t="n">
         <v>476498.1442643797</v>
       </c>
-      <c r="M2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="P2" t="n">
         <v>476498.1442643799</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409196.5187651048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503535</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091489</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254658</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="O4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="M4" t="n">
-        <v>25090.72367499379</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499379</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4890.851381993</v>
-      </c>
       <c r="P4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499358</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>96383.51825371372</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871158</v>
+        <v>-381266.4012871155</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.4779274286</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.4779274289</v>
       </c>
       <c r="E6" t="n">
-        <v>-288960.989128635</v>
+        <v>-372353.5116577343</v>
       </c>
       <c r="F6" t="n">
-        <v>329999.3268217185</v>
+        <v>355023.9023356723</v>
       </c>
       <c r="G6" t="n">
-        <v>255500.4936547575</v>
+        <v>355023.9023356723</v>
       </c>
       <c r="H6" t="n">
         <v>355023.9023356723</v>
@@ -26543,25 +26545,25 @@
         <v>355023.9023356723</v>
       </c>
       <c r="J6" t="n">
-        <v>178600.6831430794</v>
+        <v>178600.6831430793</v>
       </c>
       <c r="K6" t="n">
         <v>355023.9023356724</v>
       </c>
       <c r="L6" t="n">
+        <v>355023.9023356725</v>
+      </c>
+      <c r="M6" t="n">
+        <v>225381.5874967276</v>
+      </c>
+      <c r="N6" t="n">
         <v>355023.9023356723</v>
       </c>
-      <c r="M6" t="n">
-        <v>315870.4195631257</v>
-      </c>
-      <c r="N6" t="n">
-        <v>355023.9023356725</v>
-      </c>
       <c r="O6" t="n">
-        <v>329999.3268217185</v>
+        <v>355023.9023356724</v>
       </c>
       <c r="P6" t="n">
-        <v>329999.3268217184</v>
+        <v>355023.9023356703</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477369</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>76.68941724508403</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>57.4245935072562</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>90.29700397208769</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>191.9531358280112</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>50.36326716219128</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>132.2758992500986</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>26.40812860655807</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3387865078521</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>24.80941421243233</v>
       </c>
       <c r="T8" t="n">
-        <v>173.2526879280458</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>5.984738727581288</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>151.961031454202</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32096,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026319</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233493</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856232</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35431,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865553999</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35744,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37318,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552599</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>404.7279243224412</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
@@ -37555,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923311</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407875</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554022</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923343</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>770.4221876370765</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248981</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882215</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908565</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636256</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453596518</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901331</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1408462.206579772</v>
+        <v>1402740.594611887</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>116.9911193017153</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>133.4716269276151</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>65.87388486970745</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>173.637167941063</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>281.5082707706964</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>123.6064608052456</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.37086888118499</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>149.6062985965392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>161.2620823710465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.60385878691238</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>233.4396776561408</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>50.52844555129975</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>37.38100496017498</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>42.32069823344337</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.23490948285998</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>12.29912036775901</v>
       </c>
       <c r="G25" t="n">
-        <v>77.31354443380484</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>94.31414135199495</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.17195463236438</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>12.38867521109711</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>19.36824379237564</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.72703424640825</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>35.00179869008806</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>159.5795902124535</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>32.19576738893593</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>134.3501500932817</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>201.3600324842868</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>226.4627200266987</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2578.976243238712</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2578.976243238712</v>
+        <v>2386.151778152983</v>
       </c>
       <c r="U2" t="n">
-        <v>2325.214457876803</v>
+        <v>2386.151778152983</v>
       </c>
       <c r="V2" t="n">
-        <v>2325.214457876803</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.214457876803</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="X2" t="n">
-        <v>1951.748699615723</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>2055.088890809413</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286579</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>302.467694800751</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>302.467694800751</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>302.467694800751</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>302.467694800751</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>302.467694800751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.941371236149</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>1229.941371236149</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D5" t="n">
-        <v>1229.941371236149</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E5" t="n">
-        <v>1229.941371236149</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>818.9554664465411</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>178.797992734754</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2491.002928218878</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2491.002928218878</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2491.002928218878</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2491.002928218878</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2491.002928218878</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2491.002928218878</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.863596243066</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8867116300491</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,7 +5266,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998329</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5466,22 +5466,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5533,34 +5533,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1025.484245566078</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>856.5480626381711</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>706.4314232258354</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>558.5183296434423</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>411.6283821455319</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>243.9255455202508</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.473796464095</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X19" t="n">
-        <v>1025.484245566078</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y19" t="n">
-        <v>1025.484245566078</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5749,34 +5749,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.1038984121913</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1913.595286070923</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y22" t="n">
-        <v>339.1038984121913</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6007,19 +6007,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157126</v>
+        <v>688.1662718722065</v>
       </c>
       <c r="C25" t="n">
-        <v>323.7721631878057</v>
+        <v>519.2300889442996</v>
       </c>
       <c r="D25" t="n">
-        <v>173.65552377547</v>
+        <v>519.2300889442996</v>
       </c>
       <c r="E25" t="n">
-        <v>173.65552377547</v>
+        <v>519.2300889442996</v>
       </c>
       <c r="F25" t="n">
-        <v>173.65552377547</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>688.1662718722065</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,43 +6211,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>1770.231306037953</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>2749.9835782646</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>339.1038984121913</v>
+        <v>579.0900014994927</v>
       </c>
       <c r="C28" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D28" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E28" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1861.076656658244</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1571.973789783888</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1317.289301578001</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145538</v>
+        <v>1027.87213154104</v>
       </c>
       <c r="X28" t="n">
-        <v>583.5523174165364</v>
+        <v>799.8825806430228</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.752363242431</v>
+        <v>579.0900014994927</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="D31" t="n">
         <v>390.3640755286979</v>
@@ -6609,16 +6609,16 @@
         <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>1883.949150983575</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763411</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763411</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763411</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763411</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763411</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493357</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456396</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.574689558379</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y34" t="n">
-        <v>2992.782110414849</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X37" t="n">
-        <v>1123.1389409875</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143013</v>
@@ -7162,43 +7162,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.18756580918</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320248</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3796.153667990893</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.217485062986</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D40" t="n">
-        <v>3477.10084565065</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>3329.187752068257</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>3182.297804570347</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>3014.594967945065</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4742.69637020751</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4742.69637020751</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4742.69637020751</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>4742.69637020751</v>
+        <v>1603.466076666426</v>
       </c>
       <c r="V40" t="n">
-        <v>4488.011882001623</v>
+        <v>1348.781588460539</v>
       </c>
       <c r="W40" t="n">
-        <v>4198.594711964663</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="X40" t="n">
-        <v>4198.594711964663</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="Y40" t="n">
-        <v>3977.802132821133</v>
+        <v>838.5718392800478</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,64 +7399,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>274.299198391078</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>274.299198391078</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>128.0820116089358</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.847492740728</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.85794184271</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.0653626991802</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551612</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089251</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277741</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176223</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366033</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>1999.417367126739</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353388</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232727</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679675</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161923</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039389999</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142067</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578.4172407837245</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C46" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D46" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953304</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.34346610471</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.34346610471</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1752.949493898359</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1752.949493898359</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.265005692472</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.847835655512</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X46" t="n">
-        <v>980.8582847574944</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.0657056139643</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>231.5010718068643</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109319</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>258.6211785616921</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>231.5010718068473</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.2281213950249</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491405</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>52.77216054947209</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>94.22656936302103</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>182.1679443159942</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.61145443660396</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.3497438692348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>133.1219276551722</v>
       </c>
       <c r="G25" t="n">
-        <v>88.71226382522339</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>125.2348079241742</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.4126987197304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>136.2267978071152</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>147.8785773062522</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.8576191056865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.93035397995927</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>126.6322479931594</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>64.15665302090216</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.1728482433093</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004706</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>18.18891679188235</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>60.06027830989228</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853751</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853751</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>476498.1442643798</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="G2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="I2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.14426438</v>
       </c>
       <c r="K2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="L2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="M2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="P2" t="n">
         <v>476498.1442643798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="O2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="P2" t="n">
-        <v>476498.1442643799</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="O4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499358</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871155</v>
+        <v>-381266.4012871154</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274286</v>
+        <v>208701.4779274288</v>
       </c>
       <c r="D6" t="n">
         <v>208701.4779274289</v>
       </c>
       <c r="E6" t="n">
-        <v>-372353.5116577343</v>
+        <v>-373025.4665599922</v>
       </c>
       <c r="F6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="G6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="H6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="I6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334146</v>
       </c>
       <c r="J6" t="n">
-        <v>178600.6831430793</v>
+        <v>177928.7282408215</v>
       </c>
       <c r="K6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334143</v>
       </c>
       <c r="L6" t="n">
-        <v>355023.9023356725</v>
+        <v>354351.9474334143</v>
       </c>
       <c r="M6" t="n">
-        <v>225381.5874967276</v>
+        <v>224709.6325944698</v>
       </c>
       <c r="N6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334144</v>
       </c>
       <c r="O6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="P6" t="n">
-        <v>355023.9023356703</v>
+        <v>354351.9474334143</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>57.4245935072562</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>82.97669343004264</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>90.29700397208769</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>51.39793751702126</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>132.2758992500986</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>43.70334145380528</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>198.3387865078521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>24.80941421243233</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>5.984738727581288</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32557,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974805</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003827</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781704</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451126</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026319</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970268</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297395</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098829</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895886</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>739.5540726950834</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>867.4697571238434</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>766.6741794499112</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407875</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554022</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923343</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>770.4221876370765</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248981</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882215</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908565</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636256</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152081</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453596518</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789417</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1402740.594611887</v>
+        <v>1406146.085736335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>133.4716269276151</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>120.0389752404586</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>173.637167941063</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.60385878691238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>113.2541744914005</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>233.4396776561408</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>145.5000104076917</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249715</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>37.38100496017498</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.32069823344337</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>28.18247992524452</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.29912036775901</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>94.31414135199495</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>12.38867521109711</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.36824379237564</v>
+        <v>132.6277275092022</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>159.5795902124535</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.385960562418</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>32.19576738893593</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>155.1634067967805</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>226.4627200266987</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.489050745291</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2386.151778152983</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2386.151778152983</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2055.088890809413</v>
+        <v>1872.294971331163</v>
       </c>
       <c r="W2" t="n">
-        <v>2055.088890809413</v>
+        <v>1519.526316061049</v>
       </c>
       <c r="X2" t="n">
-        <v>2055.088890809413</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="Y2" t="n">
-        <v>2055.088890809413</v>
+        <v>1146.060557799969</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326643</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>178.797992734754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5032,43 +5032,43 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827578</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5153,10 +5153,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
         <v>1554.419908487875</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.3640755286979</v>
+        <v>529.0120128405567</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286979</v>
+        <v>360.0758299126499</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>209.9591905003141</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>209.9591905003141</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>209.9591905003141</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>931.4530568143266</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>931.4530568143266</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154781</v>
+        <v>710.6604776707965</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,19 +5266,19 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
         <v>1106.569146563073</v>
@@ -5290,40 +5290,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763013</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1439.029470490936</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1184.344982285049</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>894.9278122480885</v>
+        <v>1412.241807861857</v>
       </c>
       <c r="X16" t="n">
-        <v>666.9382613500711</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.145682206541</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1726.898991062666</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454626</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474453</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5776,16 +5776,16 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5828,16 +5828,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763013</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.595286070923</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1721.909401897749</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1500.142786467275</v>
+        <v>1646.359973249418</v>
       </c>
       <c r="U22" t="n">
-        <v>1211.039919592919</v>
+        <v>1357.257106375061</v>
       </c>
       <c r="V22" t="n">
-        <v>956.3554313870318</v>
+        <v>1102.572618169174</v>
       </c>
       <c r="W22" t="n">
-        <v>666.9382613500711</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="X22" t="n">
-        <v>666.9382613500711</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.145682206541</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.1662718722065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>519.2300889442996</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>519.2300889442996</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>519.2300889442996</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>908.9588510157366</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>908.9588510157366</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.1662718722065</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6232,40 +6232,40 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0900014994927</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1861.076656658244</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.973789783888</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1317.289301578001</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1027.87213154104</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>799.8825806430228</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>579.0900014994927</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.8778888732404</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>402.8778888732404</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>805.3189328470103</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.5263537034801</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.238303939012</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.658977898817</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>1653.767516148151</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.777965250134</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.985386106604</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6964,19 +6964,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.0445975595949</v>
+        <v>771.773793647135</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.892362468343</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.475192431382</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X37" t="n">
-        <v>962.4856415333647</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.6930623898346</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320248</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>656.9233744498081</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C40" t="n">
-        <v>656.9233744498081</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D40" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7365,19 +7365,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>1603.466076666426</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.781588460539</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W40" t="n">
-        <v>1059.364418423578</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X40" t="n">
-        <v>1059.364418423578</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y40" t="n">
-        <v>838.5718392800478</v>
+        <v>888.1361095963035</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>590.1253288168953</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C43" t="n">
-        <v>421.1891458889884</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>421.1891458889884</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>421.1891458889884</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>274.299198391078</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>274.299198391078</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>128.0820116089358</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1509.973093725643</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.555923688682</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X43" t="n">
-        <v>992.5663727906651</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y43" t="n">
-        <v>771.773793647135</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7727,10 +7727,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>872.2088161023238</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>644.2192652043065</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.4266860607763</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>29.61882225791996</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>64.28566532692435</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>315.1679217109319</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>258.621178561693</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.2281213950249</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>52.77163376762773</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>52.77216054947209</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>73.08464294440304</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.1421360569658</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.61145443660396</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.3664693509247</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>133.1219276551722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>125.2348079241742</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>136.2267978071152</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>147.8785773062522</v>
+        <v>34.6190935894256</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>126.6322479931594</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.1986927896768</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>64.15665302090216</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>131.3595915398105</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>60.06027830989228</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937585.9195853751</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937585.9195853751</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>476498.14426438</v>
+      </c>
+      <c r="F2" t="n">
+        <v>476498.1442643802</v>
+      </c>
+      <c r="G2" t="n">
+        <v>476498.14426438</v>
+      </c>
+      <c r="H2" t="n">
+        <v>476498.14426438</v>
+      </c>
+      <c r="I2" t="n">
         <v>476498.1442643798</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="K2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="L2" t="n">
         <v>476498.1442643799</v>
-      </c>
-      <c r="G2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="H2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="I2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.14426438</v>
-      </c>
-      <c r="K2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476498.1442643798</v>
       </c>
       <c r="M2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="P2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871154</v>
+        <v>-381266.4012871158</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.4779274286</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274289</v>
+        <v>208701.477927429</v>
       </c>
       <c r="E6" t="n">
-        <v>-373025.4665599922</v>
+        <v>-372420.7071479601</v>
       </c>
       <c r="F6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.706845447</v>
       </c>
       <c r="G6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454467</v>
       </c>
       <c r="H6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454467</v>
       </c>
       <c r="I6" t="n">
-        <v>354351.9474334146</v>
+        <v>354956.7068454467</v>
       </c>
       <c r="J6" t="n">
-        <v>177928.7282408215</v>
+        <v>178533.4876528536</v>
       </c>
       <c r="K6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="L6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="M6" t="n">
-        <v>224709.6325944698</v>
+        <v>225314.3920065018</v>
       </c>
       <c r="N6" t="n">
-        <v>354351.9474334144</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="O6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="P6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454465</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>82.97669343004264</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>207.7132832296763</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>51.39793751702126</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>69.33174441270474</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>43.70334145380528</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605947</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>572.3386662151435</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>867.4697571238434</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37308,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>766.6741794499121</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
